--- a/PCB/LightShaker-3/LightShaker-3_BOM.xlsx
+++ b/PCB/LightShaker-3/LightShaker-3_BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\Synergies\Operations\DevelopTestProcedures\Education\Lightshaker\PCB_Schematic\LightShaker-3\B1962200\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\LightShaker\PCB\LightShaker-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1D0A03BB-C9C8-407B-8F2F-72DA192C8B3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7F8B155E-E527-4824-9CC5-C5C1C7FE34D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>LightShaker-3</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>PARTNR</t>
-  </si>
-  <si>
     <t>PUSH-BUTTON_SMD</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>Push Button Switch</t>
   </si>
   <si>
-    <t>E0869600</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>Resistor</t>
   </si>
   <si>
-    <t>E0002800</t>
-  </si>
-  <si>
     <t>100n</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>Capacitor</t>
   </si>
   <si>
-    <t>E0001400</t>
-  </si>
-  <si>
     <t>100u</t>
   </si>
   <si>
@@ -103,33 +91,21 @@
     <t>C20</t>
   </si>
   <si>
-    <t>E0242200</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
-    <t>E0002700</t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
     <t>R2, R3, R12, R13</t>
   </si>
   <si>
-    <t>E0002500</t>
-  </si>
-  <si>
     <t>1u</t>
   </si>
   <si>
     <t>C6, C19, C22</t>
   </si>
   <si>
-    <t>E0487200</t>
-  </si>
-  <si>
     <t>X3</t>
   </si>
   <si>
@@ -139,9 +115,6 @@
     <t>R1, R4, R9, R11, R15, R18</t>
   </si>
   <si>
-    <t>E0149800</t>
-  </si>
-  <si>
     <t>3u3</t>
   </si>
   <si>
@@ -155,9 +128,6 @@
   </si>
   <si>
     <t>Inductor</t>
-  </si>
-  <si>
-    <t>E0517800</t>
   </si>
   <si>
     <t>4R7</t>
@@ -176,9 +146,6 @@
 IC11, IC12, IC13, IC14, IC15, IC16, IC17</t>
   </si>
   <si>
-    <t>P1480014</t>
-  </si>
-  <si>
     <t>BSS138</t>
   </si>
   <si>
@@ -188,9 +155,6 @@
     <t>T1, T2, T4</t>
   </si>
   <si>
-    <t>E0277100</t>
-  </si>
-  <si>
     <t>FDC6306P</t>
   </si>
   <si>
@@ -200,9 +164,6 @@
     <t>T3</t>
   </si>
   <si>
-    <t>E0662100</t>
-  </si>
-  <si>
     <t>MAX1765</t>
   </si>
   <si>
@@ -212,9 +173,6 @@
     <t>IC18</t>
   </si>
   <si>
-    <t>P1480011</t>
-  </si>
-  <si>
     <t>MMA8653FC</t>
   </si>
   <si>
@@ -224,18 +182,12 @@
     <t>IC20</t>
   </si>
   <si>
-    <t>P1480013</t>
-  </si>
-  <si>
     <t>NUP2201</t>
   </si>
   <si>
     <t>IC19</t>
   </si>
   <si>
-    <t>E0439000</t>
-  </si>
-  <si>
     <t>RB160M-90</t>
   </si>
   <si>
@@ -248,9 +200,6 @@
     <t>Diode RB160M-90</t>
   </si>
   <si>
-    <t>E0617200</t>
-  </si>
-  <si>
     <t>STM32F042F6P6</t>
   </si>
   <si>
@@ -260,9 +209,6 @@
     <t>IC1</t>
   </si>
   <si>
-    <t>P1480012</t>
-  </si>
-  <si>
     <t>Batteryholder</t>
   </si>
   <si>
@@ -275,19 +221,7 @@
     <t>SMD Led</t>
   </si>
   <si>
-    <t>Graf Assem.</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>Ordered</t>
-  </si>
-  <si>
     <t>Pieces</t>
-  </si>
-  <si>
-    <t>Qty * Pieces</t>
   </si>
   <si>
     <t>R6, R7, R20</t>
@@ -442,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -620,12 +554,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -804,7 +732,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -812,13 +740,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1175,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,256 +1112,179 @@
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="35.85546875" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="E1">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4">
-        <f t="shared" ref="J4:J23" si="0">B4*Pieces</f>
-        <v>500</v>
-      </c>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>1</v>
       </c>
@@ -1453,378 +1298,243 @@
         <v>2468</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>6</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-      <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>1</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>16</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="4">
-        <f t="shared" si="0"/>
-        <v>4000</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K18" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4">
-        <f t="shared" si="0"/>
-        <v>750</v>
-      </c>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="4">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>84</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
